--- a/00-course-info/F2025/_class-planning.xlsx
+++ b/00-course-info/F2025/_class-planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpslo-my.sharepoint.com/personal/erobin17_calpoly_edu/Documents/stat-218-calpoly/00-course-info/F2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1579" documentId="11_F25DC773A252ABDACC1048BFF9586A525BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{022BC527-01CC-4BD0-87BF-735FEDA2286F}"/>
+  <xr:revisionPtr revIDLastSave="1580" documentId="11_F25DC773A252ABDACC1048BFF9586A525BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEC2869A-1FF6-4B5B-BAE9-A0E8520C1B1F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="215">
   <si>
     <t>Day</t>
   </si>
@@ -967,6 +967,21 @@
   </si>
   <si>
     <t>CLT Activity?</t>
+  </si>
+  <si>
+    <t>HW 1: xxxx</t>
+  </si>
+  <si>
+    <t>HW : xxxx</t>
+  </si>
+  <si>
+    <t>HW 2: xxxx</t>
+  </si>
+  <si>
+    <t>HW 3: xxxx</t>
+  </si>
+  <si>
+    <t>HW 4: xxxx</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1092,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1142,11 +1157,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2931,7 +2941,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2997,7 +3007,7 @@
         <v>194</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="F4" t="s">
         <v>196</v>
@@ -3040,7 +3050,7 @@
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" t="s">
         <v>198</v>
       </c>
       <c r="E8" t="s">
@@ -3048,7 +3058,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F9" t="s">
@@ -3084,10 +3094,10 @@
       <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" t="s">
         <v>84</v>
       </c>
       <c r="F12" t="s">
@@ -3095,7 +3105,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="7" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3109,7 +3119,7 @@
       <c r="C14" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="21" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3128,15 +3138,15 @@
       <c r="C16" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" t="s">
         <v>200</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="7" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3169,10 +3179,10 @@
       <c r="C20" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3224,7 +3234,7 @@
       <c r="C26" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="D26" s="23" t="s">
         <v>184</v>
       </c>
     </row>
